--- a/biology/Botanique/Solidage_géant/Solidage_géant.xlsx
+++ b/biology/Botanique/Solidage_géant/Solidage_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solidage_g%C3%A9ant</t>
+          <t>Solidage_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solidago gigantea
-Le Solidage géant ou Verge d'or géante[1] (Solidago gigantea) est une espèce de plante à fleurs du genre des Solidages et de la famille des Astéracées.
+Le Solidage géant ou Verge d'or géante (Solidago gigantea) est une espèce de plante à fleurs du genre des Solidages et de la famille des Astéracées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Solidage_g%C3%A9ant</t>
+          <t>Solidage_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À ne pas confondre avec le solidage du Canada qui lui ressemble par sa forme.
 La taille du solidage géant ne dépasse généralement pas 120 cm. Il est plus petit que le solidage du Canada. Le solidage géant a une tige glabre jusqu'au niveau des fleurs, souvent rougeâtre, alors que la tige du Solidage du Canada est verte dorée et poilue.
-Originaire d'Amérique du Nord[2], le solidage géant est une espèce fortement invasive.
+Originaire d'Amérique du Nord, le solidage géant est une espèce fortement invasive.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Solidage_g%C3%A9ant</t>
+          <t>Solidage_géant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Caractère invasif en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solidago gigantea est une espèce invasive en Europe, aujourd'hui répandu dans toute l'Union Européenne[3]. Elle impacte la biodiversité locale en modifiant les écosystèmes en remplaçant la flore locale et en entraînant une chute des ressources alimentaires pour les pollinisateurs[3]. Elle peut se reproduire dès sa première année et se propage très bien grâce aux grandes quantités de graines qu'elle produit, dispersées par le vent, et la croissance de ses rhizome, aboutissant souvent à des peuplements denses de cette seule espèce[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solidago gigantea est une espèce invasive en Europe, aujourd'hui répandu dans toute l'Union Européenne. Elle impacte la biodiversité locale en modifiant les écosystèmes en remplaçant la flore locale et en entraînant une chute des ressources alimentaires pour les pollinisateurs. Elle peut se reproduire dès sa première année et se propage très bien grâce aux grandes quantités de graines qu'elle produit, dispersées par le vent, et la croissance de ses rhizome, aboutissant souvent à des peuplements denses de cette seule espèce.
 </t>
         </is>
       </c>
